--- a/GUI + Reviews/202512/Review 202512/Coen/BNEW_df_20251215_141953.xlsx
+++ b/GUI + Reviews/202512/Review 202512/Coen/BNEW_df_20251215_141953.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/202512/Review 202512/Coen/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_68A202FC6278A526C8ED9F8F3837123183FA13EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A19B65F5-EBA8-4194-B0DE-DDDC61315E97}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-29370" yWindow="195" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index Composition" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,23 @@
     <sheet name="AEX BEL" sheetId="5" r:id="rId5"/>
     <sheet name="Index Market Cap" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -408,8 +430,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,13 +494,242 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="selection"/>
+      <sheetName val="inclusion"/>
+      <sheetName val="exclusion"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>BE0974293251</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>NL0011540547</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>NL0012969182</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>BMG0112X1056</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>BE0974264930</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>NL0011794037</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>NL0013267909</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>LU1598757687</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>NL0010832176</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>NL0000334118</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>NL0010273215</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>NL0011872643</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>NL0012866412</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>JE00BRX98089</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>BE0974259880</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>CH1216478797</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>BE0003822393</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>NL0012059018</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="str">
+            <v>BE0003797140</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21" t="str">
+            <v>NL0000009165</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22" t="str">
+            <v>NL0010801007</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="str">
+            <v>NL0011821202</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24" t="str">
+            <v>LU2290522684</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25" t="str">
+            <v>NL0014332678</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26" t="str">
+            <v>BE0003565737</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>NL0000009082</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28" t="str">
+            <v>NL0010773842</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29" t="str">
+            <v>NL0000009538</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30" t="str">
+            <v>NL0013654783</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="str">
+            <v>NL0000379121</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32" t="str">
+            <v>GB00B2B0DG97</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33" t="str">
+            <v>GB00BP6MXD84</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34" t="str">
+            <v>BE0003470755</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35" t="str">
+            <v>BE0974464977</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36" t="str">
+            <v>BE0003739530</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37" t="str">
+            <v>NL0015000IY2</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38" t="str">
+            <v>BE0974320526</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39" t="str">
+            <v>GB00BVZK7T90</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40" t="str">
+            <v>BE0974349814</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41" t="str">
+            <v>NL0000395903</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -516,7 +767,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -550,6 +801,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -584,9 +836,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -759,14 +1012,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -792,7 +1047,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -817,8 +1072,12 @@
       <c r="H2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="b">
+        <f>ISNUMBER(MATCH(B2,[1]selection!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -843,8 +1102,12 @@
       <c r="H3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" t="b">
+        <f>ISNUMBER(MATCH(B3,[1]selection!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -869,8 +1132,12 @@
       <c r="H4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="b">
+        <f>ISNUMBER(MATCH(B4,[1]selection!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -895,8 +1162,12 @@
       <c r="H5" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="b">
+        <f>ISNUMBER(MATCH(B5,[1]selection!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -921,8 +1192,12 @@
       <c r="H6" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="b">
+        <f>ISNUMBER(MATCH(B6,[1]selection!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -947,8 +1222,12 @@
       <c r="H7" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" t="b">
+        <f>ISNUMBER(MATCH(B7,[1]selection!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -973,8 +1252,12 @@
       <c r="H8" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" t="b">
+        <f>ISNUMBER(MATCH(B8,[1]selection!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -999,8 +1282,12 @@
       <c r="H9" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" t="b">
+        <f>ISNUMBER(MATCH(B9,[1]selection!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1025,8 +1312,12 @@
       <c r="H10" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" t="b">
+        <f>ISNUMBER(MATCH(B10,[1]selection!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1051,8 +1342,12 @@
       <c r="H11" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" t="b">
+        <f>ISNUMBER(MATCH(B11,[1]selection!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1077,8 +1372,12 @@
       <c r="H12" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" t="b">
+        <f>ISNUMBER(MATCH(B12,[1]selection!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1103,8 +1402,12 @@
       <c r="H13" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" t="b">
+        <f>ISNUMBER(MATCH(B13,[1]selection!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1129,8 +1432,12 @@
       <c r="H14" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" t="b">
+        <f>ISNUMBER(MATCH(B14,[1]selection!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1155,8 +1462,12 @@
       <c r="H15" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" t="b">
+        <f>ISNUMBER(MATCH(B15,[1]selection!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1181,8 +1492,12 @@
       <c r="H16" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" t="b">
+        <f>ISNUMBER(MATCH(B16,[1]selection!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1207,8 +1522,12 @@
       <c r="H17" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" t="b">
+        <f>ISNUMBER(MATCH(B17,[1]selection!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1233,8 +1552,12 @@
       <c r="H18" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" t="b">
+        <f>ISNUMBER(MATCH(B18,[1]selection!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1259,8 +1582,12 @@
       <c r="H19" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" t="b">
+        <f>ISNUMBER(MATCH(B19,[1]selection!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1285,8 +1612,12 @@
       <c r="H20" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" t="b">
+        <f>ISNUMBER(MATCH(B20,[1]selection!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1311,8 +1642,12 @@
       <c r="H21" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" t="b">
+        <f>ISNUMBER(MATCH(B21,[1]selection!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1337,8 +1672,12 @@
       <c r="H22" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" t="b">
+        <f>ISNUMBER(MATCH(B22,[1]selection!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1363,8 +1702,12 @@
       <c r="H23" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" t="b">
+        <f>ISNUMBER(MATCH(B23,[1]selection!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1389,8 +1732,12 @@
       <c r="H24" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" t="b">
+        <f>ISNUMBER(MATCH(B24,[1]selection!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1415,8 +1762,12 @@
       <c r="H25" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" t="b">
+        <f>ISNUMBER(MATCH(B25,[1]selection!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1441,8 +1792,12 @@
       <c r="H26" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" t="b">
+        <f>ISNUMBER(MATCH(B26,[1]selection!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1467,8 +1822,12 @@
       <c r="H27" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" t="b">
+        <f>ISNUMBER(MATCH(B27,[1]selection!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1493,8 +1852,12 @@
       <c r="H28" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" t="b">
+        <f>ISNUMBER(MATCH(B28,[1]selection!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1519,8 +1882,12 @@
       <c r="H29" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" t="b">
+        <f>ISNUMBER(MATCH(B29,[1]selection!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1545,8 +1912,12 @@
       <c r="H30" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" t="b">
+        <f>ISNUMBER(MATCH(B30,[1]selection!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1571,8 +1942,12 @@
       <c r="H31" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" t="b">
+        <f>ISNUMBER(MATCH(B31,[1]selection!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -1597,8 +1972,12 @@
       <c r="H32" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32" t="b">
+        <f>ISNUMBER(MATCH(B32,[1]selection!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1623,8 +2002,12 @@
       <c r="H33" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33" t="b">
+        <f>ISNUMBER(MATCH(B33,[1]selection!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -1649,8 +2032,12 @@
       <c r="H34" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34" t="b">
+        <f>ISNUMBER(MATCH(B34,[1]selection!$B$2:$B$41,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -1675,8 +2062,12 @@
       <c r="H35" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35" t="b">
+        <f>ISNUMBER(MATCH(B35,[1]selection!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -1701,8 +2092,12 @@
       <c r="H36" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36" t="b">
+        <f>ISNUMBER(MATCH(B36,[1]selection!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -1727,8 +2122,12 @@
       <c r="H37" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37" t="b">
+        <f>ISNUMBER(MATCH(B37,[1]selection!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1753,8 +2152,12 @@
       <c r="H38" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38" t="b">
+        <f>ISNUMBER(MATCH(B38,[1]selection!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -1779,8 +2182,12 @@
       <c r="H39" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39" t="b">
+        <f>ISNUMBER(MATCH(B39,[1]selection!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -1805,8 +2212,12 @@
       <c r="H40" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40" t="b">
+        <f>ISNUMBER(MATCH(B40,[1]selection!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -1831,21 +2242,28 @@
       <c r="H41" t="s">
         <v>91</v>
       </c>
+      <c r="I41" t="b">
+        <f>ISNUMBER(MATCH(B41,[1]selection!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1856,7 +2274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -1867,7 +2285,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1880,18 +2298,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1902,7 +2323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>94</v>
       </c>
@@ -1913,7 +2334,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -1926,18 +2347,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -2002,7 +2426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -2043,7 +2467,7 @@
         <v>89</v>
       </c>
       <c r="N2">
-        <v>15932197690.94</v>
+        <v>15932197690.940001</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -2058,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="S2">
-        <v>4338719.371476967</v>
+        <v>4338719.3714769669</v>
       </c>
       <c r="T2">
         <v>4338719</v>
@@ -2067,7 +2491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -2108,7 +2532,7 @@
         <v>89</v>
       </c>
       <c r="N3">
-        <v>28005056194.2</v>
+        <v>28005056194.200001</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -2123,7 +2547,7 @@
         <v>1</v>
       </c>
       <c r="S3">
-        <v>96944.78896147633</v>
+        <v>96944.788961476326</v>
       </c>
       <c r="T3">
         <v>96945</v>
@@ -2132,7 +2556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>23</v>
       </c>
@@ -2161,7 +2585,7 @@
         <v>51</v>
       </c>
       <c r="J4">
-        <v>6.322</v>
+        <v>6.3220000000000001</v>
       </c>
       <c r="K4">
         <v>6.52</v>
@@ -2173,13 +2597,13 @@
         <v>89</v>
       </c>
       <c r="N4">
-        <v>8676818099.84</v>
+        <v>8676818099.8400002</v>
       </c>
       <c r="O4">
         <v>1</v>
       </c>
       <c r="P4">
-        <v>6.322</v>
+        <v>6.3220000000000001</v>
       </c>
       <c r="Q4" t="s">
         <v>90</v>
@@ -2188,7 +2612,7 @@
         <v>1</v>
       </c>
       <c r="S4">
-        <v>20410236.33466071</v>
+        <v>20410236.334660709</v>
       </c>
       <c r="T4">
         <v>20410236</v>
@@ -2197,7 +2621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>9</v>
       </c>
@@ -2226,7 +2650,7 @@
         <v>53</v>
       </c>
       <c r="J5">
-        <v>34.84</v>
+        <v>34.840000000000003</v>
       </c>
       <c r="K5">
         <v>35.32</v>
@@ -2244,7 +2668,7 @@
         <v>1</v>
       </c>
       <c r="P5">
-        <v>34.84</v>
+        <v>34.840000000000003</v>
       </c>
       <c r="Q5" t="s">
         <v>90</v>
@@ -2253,7 +2677,7 @@
         <v>1</v>
       </c>
       <c r="S5">
-        <v>3703602.586329649</v>
+        <v>3703602.5863296492</v>
       </c>
       <c r="T5">
         <v>3703603</v>
@@ -2262,7 +2686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>24</v>
       </c>
@@ -2303,7 +2727,7 @@
         <v>89</v>
       </c>
       <c r="N6">
-        <v>6659624991.95</v>
+        <v>6659624991.9499998</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -2327,7 +2751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>11</v>
       </c>
@@ -2359,7 +2783,7 @@
         <v>38.43</v>
       </c>
       <c r="K7">
-        <v>34.05</v>
+        <v>34.049999999999997</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -2368,7 +2792,7 @@
         <v>89</v>
       </c>
       <c r="N7">
-        <v>15929438511.14</v>
+        <v>15929438511.139999</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -2383,7 +2807,7 @@
         <v>1</v>
       </c>
       <c r="S7">
-        <v>3357624.61898842</v>
+        <v>3357624.6189884199</v>
       </c>
       <c r="T7">
         <v>3357625</v>
@@ -2392,7 +2816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -2421,7 +2845,7 @@
         <v>57</v>
       </c>
       <c r="J8">
-        <v>542.8</v>
+        <v>542.79999999999995</v>
       </c>
       <c r="K8">
         <v>475.3</v>
@@ -2439,7 +2863,7 @@
         <v>1</v>
       </c>
       <c r="P8">
-        <v>542.8</v>
+        <v>542.79999999999995</v>
       </c>
       <c r="Q8" t="s">
         <v>90</v>
@@ -2457,7 +2881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2498,7 +2922,7 @@
         <v>89</v>
       </c>
       <c r="N9">
-        <v>129408682186.6</v>
+        <v>129408682186.60001</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -2522,7 +2946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>25</v>
       </c>
@@ -2563,7 +2987,7 @@
         <v>89</v>
       </c>
       <c r="N10">
-        <v>5982928831.22</v>
+        <v>5982928831.2200003</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -2578,7 +3002,7 @@
         <v>1</v>
       </c>
       <c r="S10">
-        <v>2197437.22935499</v>
+        <v>2197437.2293549902</v>
       </c>
       <c r="T10">
         <v>2197437</v>
@@ -2587,7 +3011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>13</v>
       </c>
@@ -2628,7 +3052,7 @@
         <v>89</v>
       </c>
       <c r="N11">
-        <v>14573414816.61</v>
+        <v>14573414816.610001</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -2643,7 +3067,7 @@
         <v>1</v>
       </c>
       <c r="S11">
-        <v>942538.4522112855</v>
+        <v>942538.45221128548</v>
       </c>
       <c r="T11">
         <v>942538</v>
@@ -2652,7 +3076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>32</v>
       </c>
@@ -2693,7 +3117,7 @@
         <v>89</v>
       </c>
       <c r="N12">
-        <v>2927559626.64</v>
+        <v>2927559626.6399999</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -2708,7 +3132,7 @@
         <v>1</v>
       </c>
       <c r="S12">
-        <v>9466875.5765022</v>
+        <v>9466875.5765022002</v>
       </c>
       <c r="T12">
         <v>9466876</v>
@@ -2717,7 +3141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>17</v>
       </c>
@@ -2773,7 +3197,7 @@
         <v>1</v>
       </c>
       <c r="S13">
-        <v>1897551.678054779</v>
+        <v>1897551.6780547791</v>
       </c>
       <c r="T13">
         <v>1897552</v>
@@ -2782,7 +3206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>29</v>
       </c>
@@ -2823,7 +3247,7 @@
         <v>89</v>
       </c>
       <c r="N14">
-        <v>4114767966.22</v>
+        <v>4114767966.2199998</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -2847,7 +3271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -2879,7 +3303,7 @@
         <v>69.02</v>
       </c>
       <c r="K15">
-        <v>70.68000000000001</v>
+        <v>70.680000000000007</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -2912,7 +3336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>27</v>
       </c>
@@ -2941,7 +3365,7 @@
         <v>68</v>
       </c>
       <c r="J16">
-        <v>75.90000000000001</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="K16">
         <v>77.5</v>
@@ -2953,13 +3377,13 @@
         <v>89</v>
       </c>
       <c r="N16">
-        <v>4546776670.05</v>
+        <v>4546776670.0500002</v>
       </c>
       <c r="O16">
         <v>1</v>
       </c>
       <c r="P16">
-        <v>75.90000000000001</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="Q16" t="s">
         <v>90</v>
@@ -2968,7 +3392,7 @@
         <v>1</v>
       </c>
       <c r="S16">
-        <v>1700046.299179512</v>
+        <v>1700046.2991795121</v>
       </c>
       <c r="T16">
         <v>1700046</v>
@@ -2977,7 +3401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -3006,10 +3430,10 @@
         <v>69</v>
       </c>
       <c r="J17">
-        <v>23.495</v>
+        <v>23.495000000000001</v>
       </c>
       <c r="K17">
-        <v>21.515</v>
+        <v>21.515000000000001</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -3018,13 +3442,13 @@
         <v>89</v>
       </c>
       <c r="N17">
-        <v>43454193352.76</v>
+        <v>43454193352.760002</v>
       </c>
       <c r="O17">
         <v>1</v>
       </c>
       <c r="P17">
-        <v>23.495</v>
+        <v>23.495000000000001</v>
       </c>
       <c r="Q17" t="s">
         <v>90</v>
@@ -3033,7 +3457,7 @@
         <v>1</v>
       </c>
       <c r="S17">
-        <v>5491956.335719301</v>
+        <v>5491956.3357193014</v>
       </c>
       <c r="T17">
         <v>5491956</v>
@@ -3042,7 +3466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>34</v>
       </c>
@@ -3074,7 +3498,7 @@
         <v>9.92</v>
       </c>
       <c r="K18">
-        <v>9.449999999999999</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -3083,7 +3507,7 @@
         <v>89</v>
       </c>
       <c r="N18">
-        <v>2444490623.37</v>
+        <v>2444490623.3699999</v>
       </c>
       <c r="O18">
         <v>1</v>
@@ -3098,7 +3522,7 @@
         <v>1</v>
       </c>
       <c r="S18">
-        <v>13007410.69634324</v>
+        <v>13007410.696343239</v>
       </c>
       <c r="T18">
         <v>13007411</v>
@@ -3107,7 +3531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>30</v>
       </c>
@@ -3148,7 +3572,7 @@
         <v>89</v>
       </c>
       <c r="N19">
-        <v>3397692270.18</v>
+        <v>3397692270.1799998</v>
       </c>
       <c r="O19">
         <v>1</v>
@@ -3163,7 +3587,7 @@
         <v>1</v>
       </c>
       <c r="S19">
-        <v>4073027.591784249</v>
+        <v>4073027.5917842491</v>
       </c>
       <c r="T19">
         <v>4073028</v>
@@ -3172,7 +3596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>21</v>
       </c>
@@ -3201,7 +3625,7 @@
         <v>73</v>
       </c>
       <c r="J20">
-        <v>3.862</v>
+        <v>3.8620000000000001</v>
       </c>
       <c r="K20">
         <v>3.93</v>
@@ -3213,13 +3637,13 @@
         <v>89</v>
       </c>
       <c r="N20">
-        <v>9092890150.860001</v>
+        <v>9092890150.8600006</v>
       </c>
       <c r="O20">
         <v>1</v>
       </c>
       <c r="P20">
-        <v>3.862</v>
+        <v>3.8620000000000001</v>
       </c>
       <c r="Q20" t="s">
         <v>90</v>
@@ -3228,7 +3652,7 @@
         <v>1</v>
       </c>
       <c r="S20">
-        <v>33411060.10039487</v>
+        <v>33411060.100394871</v>
       </c>
       <c r="T20">
         <v>33411060</v>
@@ -3237,7 +3661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -3278,7 +3702,7 @@
         <v>89</v>
       </c>
       <c r="N21">
-        <v>10090624716.81</v>
+        <v>10090624716.809999</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -3293,7 +3717,7 @@
         <v>1</v>
       </c>
       <c r="S21">
-        <v>2033945.682656447</v>
+        <v>2033945.6826564469</v>
       </c>
       <c r="T21">
         <v>2033946</v>
@@ -3302,7 +3726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3343,7 +3767,7 @@
         <v>89</v>
       </c>
       <c r="N22">
-        <v>9989451140.99</v>
+        <v>9989451140.9899998</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -3358,7 +3782,7 @@
         <v>1</v>
       </c>
       <c r="S22">
-        <v>5600412.938703342</v>
+        <v>5600412.9387033423</v>
       </c>
       <c r="T22">
         <v>5600413</v>
@@ -3367,7 +3791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4</v>
       </c>
@@ -3384,7 +3808,7 @@
         <v>2378947836</v>
       </c>
       <c r="F23">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -3423,7 +3847,7 @@
         <v>1</v>
       </c>
       <c r="S23">
-        <v>2432299.98318049</v>
+        <v>2432299.9831804899</v>
       </c>
       <c r="T23">
         <v>2432300</v>
@@ -3432,7 +3856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>28</v>
       </c>
@@ -3449,7 +3873,7 @@
         <v>180869312</v>
       </c>
       <c r="F24">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -3479,7 +3903,7 @@
         <v>1</v>
       </c>
       <c r="P24">
-        <v>37.328475</v>
+        <v>37.328474999999997</v>
       </c>
       <c r="Q24" t="s">
         <v>90</v>
@@ -3488,7 +3912,7 @@
         <v>1</v>
       </c>
       <c r="S24">
-        <v>3456704.6767307</v>
+        <v>3456704.6767306998</v>
       </c>
       <c r="T24">
         <v>3456705</v>
@@ -3497,7 +3921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
@@ -3538,7 +3962,7 @@
         <v>89</v>
       </c>
       <c r="N25">
-        <v>8963662594.59</v>
+        <v>8963662594.5900002</v>
       </c>
       <c r="O25">
         <v>1</v>
@@ -3553,7 +3977,7 @@
         <v>1</v>
       </c>
       <c r="S25">
-        <v>3201586.157707109</v>
+        <v>3201586.1577071091</v>
       </c>
       <c r="T25">
         <v>3201586</v>
@@ -3562,7 +3986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -3582,7 +4006,7 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.74761144574005</v>
+        <v>0.74761144574005001</v>
       </c>
       <c r="H26" t="s">
         <v>91</v>
@@ -3594,7 +4018,7 @@
         <v>31.01</v>
       </c>
       <c r="K26">
-        <v>31.775</v>
+        <v>31.774999999999999</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -3603,7 +4027,7 @@
         <v>89</v>
       </c>
       <c r="N26">
-        <v>44391990363.08</v>
+        <v>44391990363.080002</v>
       </c>
       <c r="O26">
         <v>1</v>
@@ -3618,7 +4042,7 @@
         <v>1</v>
       </c>
       <c r="S26">
-        <v>4161029.155360367</v>
+        <v>4161029.1553603671</v>
       </c>
       <c r="T26">
         <v>4161029</v>
@@ -3627,7 +4051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>15</v>
       </c>
@@ -3683,7 +4107,7 @@
         <v>1</v>
       </c>
       <c r="S27">
-        <v>5873168.598439918</v>
+        <v>5873168.5984399179</v>
       </c>
       <c r="T27">
         <v>5873169</v>
@@ -3692,7 +4116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>36</v>
       </c>
@@ -3733,7 +4157,7 @@
         <v>88</v>
       </c>
       <c r="N28">
-        <v>2327467389.61</v>
+        <v>2327467389.6100001</v>
       </c>
       <c r="O28">
         <v>1</v>
@@ -3748,7 +4172,7 @@
         <v>1</v>
       </c>
       <c r="S28">
-        <v>6221480.911655014</v>
+        <v>6221480.9116550144</v>
       </c>
       <c r="T28">
         <v>6221481</v>
@@ -3757,7 +4181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>7</v>
       </c>
@@ -3789,7 +4213,7 @@
         <v>88.64</v>
       </c>
       <c r="K29">
-        <v>92.76000000000001</v>
+        <v>92.76</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -3798,7 +4222,7 @@
         <v>89</v>
       </c>
       <c r="N29">
-        <v>22888854350.05</v>
+        <v>22888854350.049999</v>
       </c>
       <c r="O29">
         <v>1</v>
@@ -3813,7 +4237,7 @@
         <v>1</v>
       </c>
       <c r="S29">
-        <v>1455703.002117836</v>
+        <v>1455703.0021178359</v>
       </c>
       <c r="T29">
         <v>1455703</v>
@@ -3822,7 +4246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6</v>
       </c>
@@ -3839,10 +4263,10 @@
         <v>1797198523</v>
       </c>
       <c r="F30">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G30">
-        <v>0.24478248632254</v>
+        <v>0.24478248632253999</v>
       </c>
       <c r="H30" t="s">
         <v>91</v>
@@ -3863,7 +4287,7 @@
         <v>88</v>
       </c>
       <c r="N30">
-        <v>25421540355.33</v>
+        <v>25421540355.330002</v>
       </c>
       <c r="O30">
         <v>1</v>
@@ -3887,7 +4311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>26</v>
       </c>
@@ -3928,7 +4352,7 @@
         <v>88</v>
       </c>
       <c r="N31">
-        <v>4877719630.38</v>
+        <v>4877719630.3800001</v>
       </c>
       <c r="O31">
         <v>1</v>
@@ -3952,7 +4376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>14</v>
       </c>
@@ -4008,7 +4432,7 @@
         <v>1</v>
       </c>
       <c r="S32">
-        <v>170498.8294235267</v>
+        <v>170498.82942352671</v>
       </c>
       <c r="T32">
         <v>170499</v>
@@ -4017,7 +4441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>35</v>
       </c>
@@ -4046,7 +4470,7 @@
         <v>62</v>
       </c>
       <c r="J33">
-        <v>144.7</v>
+        <v>144.69999999999999</v>
       </c>
       <c r="K33">
         <v>147</v>
@@ -4058,13 +4482,13 @@
         <v>88</v>
       </c>
       <c r="N33">
-        <v>2402456712.9</v>
+        <v>2402456712.9000001</v>
       </c>
       <c r="O33">
         <v>1</v>
       </c>
       <c r="P33">
-        <v>144.7</v>
+        <v>144.69999999999999</v>
       </c>
       <c r="Q33" t="s">
         <v>90</v>
@@ -4073,7 +4497,7 @@
         <v>1</v>
       </c>
       <c r="S33">
-        <v>891731.2654300276</v>
+        <v>891731.26543002762</v>
       </c>
       <c r="T33">
         <v>891731</v>
@@ -4082,7 +4506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>31</v>
       </c>
@@ -4123,7 +4547,7 @@
         <v>88</v>
       </c>
       <c r="N34">
-        <v>3109890216.43</v>
+        <v>3109890216.4299998</v>
       </c>
       <c r="O34">
         <v>1</v>
@@ -4147,7 +4571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>37</v>
       </c>
@@ -4164,7 +4588,7 @@
         <v>138400000</v>
       </c>
       <c r="F35">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -4188,7 +4612,7 @@
         <v>88</v>
       </c>
       <c r="N35">
-        <v>1916925161.63</v>
+        <v>1916925161.6300001</v>
       </c>
       <c r="O35">
         <v>1</v>
@@ -4212,7 +4636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>19</v>
       </c>
@@ -4229,10 +4653,10 @@
         <v>417544151</v>
       </c>
       <c r="F36">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G36">
-        <v>0.54404941800678</v>
+        <v>0.54404941800677997</v>
       </c>
       <c r="H36" t="s">
         <v>91</v>
@@ -4277,7 +4701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>40</v>
       </c>
@@ -4318,7 +4742,7 @@
         <v>88</v>
       </c>
       <c r="N37">
-        <v>1635145816.6</v>
+        <v>1635145816.5999999</v>
       </c>
       <c r="O37">
         <v>1</v>
@@ -4333,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="S37">
-        <v>543986.1471657883</v>
+        <v>543986.14716578834</v>
       </c>
       <c r="T37">
         <v>543986</v>
@@ -4342,7 +4766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>38</v>
       </c>
@@ -4383,7 +4807,7 @@
         <v>88</v>
       </c>
       <c r="N38">
-        <v>1859542417.37</v>
+        <v>1859542417.3699999</v>
       </c>
       <c r="O38">
         <v>1</v>
@@ -4398,7 +4822,7 @@
         <v>1</v>
       </c>
       <c r="S38">
-        <v>4793221.177850111</v>
+        <v>4793221.1778501114</v>
       </c>
       <c r="T38">
         <v>4793221</v>
@@ -4407,7 +4831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>33</v>
       </c>
@@ -4439,7 +4863,7 @@
         <v>70.12</v>
       </c>
       <c r="K39">
-        <v>68.54000000000001</v>
+        <v>68.540000000000006</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -4448,7 +4872,7 @@
         <v>88</v>
       </c>
       <c r="N39">
-        <v>2565504599.65</v>
+        <v>2565504599.6500001</v>
       </c>
       <c r="O39">
         <v>1</v>
@@ -4472,7 +4896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>16</v>
       </c>
@@ -4492,7 +4916,7 @@
         <v>0.65</v>
       </c>
       <c r="G40">
-        <v>0.44682397435343</v>
+        <v>0.44682397435343002</v>
       </c>
       <c r="H40" t="s">
         <v>91</v>
@@ -4528,7 +4952,7 @@
         <v>1</v>
       </c>
       <c r="S40">
-        <v>536076.0868621728</v>
+        <v>536076.08686217282</v>
       </c>
       <c r="T40">
         <v>536076</v>
@@ -4537,7 +4961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -4578,7 +5002,7 @@
         <v>88</v>
       </c>
       <c r="N41">
-        <v>1804403506.06</v>
+        <v>1804403506.0599999</v>
       </c>
       <c r="O41">
         <v>1</v>
@@ -4593,7 +5017,7 @@
         <v>1</v>
       </c>
       <c r="S41">
-        <v>8140915.716575709</v>
+        <v>8140915.7165757092</v>
       </c>
       <c r="T41">
         <v>8140916</v>
@@ -4604,18 +5028,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -4677,7 +5104,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -4718,7 +5145,7 @@
         <v>89</v>
       </c>
       <c r="N2">
-        <v>15932197690.94</v>
+        <v>15932197690.940001</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -4733,13 +5160,13 @@
         <v>1</v>
       </c>
       <c r="S2">
-        <v>4338719.371476967</v>
+        <v>4338719.3714769669</v>
       </c>
       <c r="T2">
         <v>4338719</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -4780,7 +5207,7 @@
         <v>89</v>
       </c>
       <c r="N3">
-        <v>28005056194.2</v>
+        <v>28005056194.200001</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -4795,13 +5222,13 @@
         <v>1</v>
       </c>
       <c r="S3">
-        <v>96944.78896147633</v>
+        <v>96944.788961476326</v>
       </c>
       <c r="T3">
         <v>96945</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>23</v>
       </c>
@@ -4830,7 +5257,7 @@
         <v>51</v>
       </c>
       <c r="J4">
-        <v>6.322</v>
+        <v>6.3220000000000001</v>
       </c>
       <c r="K4">
         <v>6.52</v>
@@ -4842,13 +5269,13 @@
         <v>89</v>
       </c>
       <c r="N4">
-        <v>8676818099.84</v>
+        <v>8676818099.8400002</v>
       </c>
       <c r="O4">
         <v>0.75</v>
       </c>
       <c r="P4">
-        <v>6.322</v>
+        <v>6.3220000000000001</v>
       </c>
       <c r="Q4" t="s">
         <v>90</v>
@@ -4857,13 +5284,13 @@
         <v>1</v>
       </c>
       <c r="S4">
-        <v>20410236.33466071</v>
+        <v>20410236.334660709</v>
       </c>
       <c r="T4">
         <v>20410236</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>9</v>
       </c>
@@ -4892,7 +5319,7 @@
         <v>53</v>
       </c>
       <c r="J5">
-        <v>34.84</v>
+        <v>34.840000000000003</v>
       </c>
       <c r="K5">
         <v>35.32</v>
@@ -4910,7 +5337,7 @@
         <v>1</v>
       </c>
       <c r="P5">
-        <v>34.84</v>
+        <v>34.840000000000003</v>
       </c>
       <c r="Q5" t="s">
         <v>90</v>
@@ -4919,13 +5346,13 @@
         <v>1</v>
       </c>
       <c r="S5">
-        <v>3703602.586329649</v>
+        <v>3703602.5863296492</v>
       </c>
       <c r="T5">
         <v>3703603</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>24</v>
       </c>
@@ -4966,10 +5393,10 @@
         <v>89</v>
       </c>
       <c r="N6">
-        <v>6659624991.95</v>
+        <v>6659624991.9499998</v>
       </c>
       <c r="O6">
-        <v>0.9500000000000001</v>
+        <v>0.95000000000000007</v>
       </c>
       <c r="P6">
         <v>56</v>
@@ -4987,7 +5414,7 @@
         <v>2304170</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>11</v>
       </c>
@@ -5019,7 +5446,7 @@
         <v>38.43</v>
       </c>
       <c r="K7">
-        <v>34.05</v>
+        <v>34.049999999999997</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -5028,7 +5455,7 @@
         <v>89</v>
       </c>
       <c r="N7">
-        <v>15929438511.14</v>
+        <v>15929438511.139999</v>
       </c>
       <c r="O7">
         <v>0.5</v>
@@ -5043,13 +5470,13 @@
         <v>1</v>
       </c>
       <c r="S7">
-        <v>3357624.61898842</v>
+        <v>3357624.6189884199</v>
       </c>
       <c r="T7">
         <v>3357625</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -5078,7 +5505,7 @@
         <v>57</v>
       </c>
       <c r="J8">
-        <v>542.8</v>
+        <v>542.79999999999995</v>
       </c>
       <c r="K8">
         <v>475.3</v>
@@ -5096,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="P8">
-        <v>542.8</v>
+        <v>542.79999999999995</v>
       </c>
       <c r="Q8" t="s">
         <v>90</v>
@@ -5111,7 +5538,7 @@
         <v>237718</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -5152,7 +5579,7 @@
         <v>89</v>
       </c>
       <c r="N9">
-        <v>129408682186.6</v>
+        <v>129408682186.60001</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -5173,7 +5600,7 @@
         <v>116644</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>25</v>
       </c>
@@ -5214,10 +5641,10 @@
         <v>89</v>
       </c>
       <c r="N10">
-        <v>5982928831.22</v>
+        <v>5982928831.2200003</v>
       </c>
       <c r="O10">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="P10">
         <v>58.72</v>
@@ -5229,13 +5656,13 @@
         <v>1</v>
       </c>
       <c r="S10">
-        <v>2197437.22935499</v>
+        <v>2197437.2293549902</v>
       </c>
       <c r="T10">
         <v>2197437</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>13</v>
       </c>
@@ -5276,7 +5703,7 @@
         <v>89</v>
       </c>
       <c r="N11">
-        <v>14573414816.61</v>
+        <v>14573414816.610001</v>
       </c>
       <c r="O11">
         <v>0.9</v>
@@ -5291,13 +5718,13 @@
         <v>1</v>
       </c>
       <c r="S11">
-        <v>942538.4522112855</v>
+        <v>942538.45221128548</v>
       </c>
       <c r="T11">
         <v>942538</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>32</v>
       </c>
@@ -5338,7 +5765,7 @@
         <v>89</v>
       </c>
       <c r="N12">
-        <v>2927559626.64</v>
+        <v>2927559626.6399999</v>
       </c>
       <c r="O12">
         <v>0.25</v>
@@ -5353,13 +5780,13 @@
         <v>1</v>
       </c>
       <c r="S12">
-        <v>9466875.5765022</v>
+        <v>9466875.5765022002</v>
       </c>
       <c r="T12">
         <v>9466876</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>17</v>
       </c>
@@ -5415,13 +5842,13 @@
         <v>1</v>
       </c>
       <c r="S13">
-        <v>1897551.678054779</v>
+        <v>1897551.6780547791</v>
       </c>
       <c r="T13">
         <v>1897552</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>29</v>
       </c>
@@ -5462,7 +5889,7 @@
         <v>89</v>
       </c>
       <c r="N14">
-        <v>4114767966.22</v>
+        <v>4114767966.2199998</v>
       </c>
       <c r="O14">
         <v>0.45</v>
@@ -5483,7 +5910,7 @@
         <v>1803403</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -5515,7 +5942,7 @@
         <v>69.02</v>
       </c>
       <c r="K15">
-        <v>70.68000000000001</v>
+        <v>70.680000000000007</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -5545,7 +5972,7 @@
         <v>1869509</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>27</v>
       </c>
@@ -5574,7 +6001,7 @@
         <v>68</v>
       </c>
       <c r="J16">
-        <v>75.90000000000001</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="K16">
         <v>77.5</v>
@@ -5586,13 +6013,13 @@
         <v>89</v>
       </c>
       <c r="N16">
-        <v>4546776670.05</v>
+        <v>4546776670.0500002</v>
       </c>
       <c r="O16">
-        <v>0.9500000000000001</v>
+        <v>0.95000000000000007</v>
       </c>
       <c r="P16">
-        <v>75.90000000000001</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="Q16" t="s">
         <v>90</v>
@@ -5601,13 +6028,13 @@
         <v>1</v>
       </c>
       <c r="S16">
-        <v>1700046.299179512</v>
+        <v>1700046.2991795121</v>
       </c>
       <c r="T16">
         <v>1700046</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -5636,10 +6063,10 @@
         <v>69</v>
       </c>
       <c r="J17">
-        <v>23.495</v>
+        <v>23.495000000000001</v>
       </c>
       <c r="K17">
-        <v>21.515</v>
+        <v>21.515000000000001</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -5648,13 +6075,13 @@
         <v>89</v>
       </c>
       <c r="N17">
-        <v>43454193352.76</v>
+        <v>43454193352.760002</v>
       </c>
       <c r="O17">
         <v>1</v>
       </c>
       <c r="P17">
-        <v>23.495</v>
+        <v>23.495000000000001</v>
       </c>
       <c r="Q17" t="s">
         <v>90</v>
@@ -5663,13 +6090,13 @@
         <v>1</v>
       </c>
       <c r="S17">
-        <v>5491956.335719301</v>
+        <v>5491956.3357193014</v>
       </c>
       <c r="T17">
         <v>5491956</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>34</v>
       </c>
@@ -5701,7 +6128,7 @@
         <v>9.92</v>
       </c>
       <c r="K18">
-        <v>9.449999999999999</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -5710,7 +6137,7 @@
         <v>89</v>
       </c>
       <c r="N18">
-        <v>2444490623.37</v>
+        <v>2444490623.3699999</v>
       </c>
       <c r="O18">
         <v>0.5</v>
@@ -5725,13 +6152,13 @@
         <v>1</v>
       </c>
       <c r="S18">
-        <v>13007410.69634324</v>
+        <v>13007410.696343239</v>
       </c>
       <c r="T18">
         <v>13007411</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>30</v>
       </c>
@@ -5772,7 +6199,7 @@
         <v>89</v>
       </c>
       <c r="N19">
-        <v>3397692270.18</v>
+        <v>3397692270.1799998</v>
       </c>
       <c r="O19">
         <v>0.3</v>
@@ -5787,13 +6214,13 @@
         <v>1</v>
       </c>
       <c r="S19">
-        <v>4073027.591784249</v>
+        <v>4073027.5917842491</v>
       </c>
       <c r="T19">
         <v>4073028</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>21</v>
       </c>
@@ -5822,7 +6249,7 @@
         <v>73</v>
       </c>
       <c r="J20">
-        <v>3.862</v>
+        <v>3.8620000000000001</v>
       </c>
       <c r="K20">
         <v>3.93</v>
@@ -5834,13 +6261,13 @@
         <v>89</v>
       </c>
       <c r="N20">
-        <v>9092890150.860001</v>
+        <v>9092890150.8600006</v>
       </c>
       <c r="O20">
         <v>1</v>
       </c>
       <c r="P20">
-        <v>3.862</v>
+        <v>3.8620000000000001</v>
       </c>
       <c r="Q20" t="s">
         <v>90</v>
@@ -5849,13 +6276,13 @@
         <v>1</v>
       </c>
       <c r="S20">
-        <v>33411060.10039487</v>
+        <v>33411060.100394871</v>
       </c>
       <c r="T20">
         <v>33411060</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>94</v>
       </c>
@@ -5899,13 +6326,13 @@
         <v>0</v>
       </c>
       <c r="S21">
-        <v>9522768.568835793</v>
+        <v>9522768.5688357931</v>
       </c>
       <c r="T21">
         <v>9522769</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
@@ -5946,10 +6373,10 @@
         <v>89</v>
       </c>
       <c r="N22">
-        <v>10090624716.81</v>
+        <v>10090624716.809999</v>
       </c>
       <c r="O22">
-        <v>0.9500000000000001</v>
+        <v>0.95000000000000007</v>
       </c>
       <c r="P22">
         <v>63.44</v>
@@ -5961,13 +6388,13 @@
         <v>1</v>
       </c>
       <c r="S22">
-        <v>2033945.682656447</v>
+        <v>2033945.6826564469</v>
       </c>
       <c r="T22">
         <v>2033946</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -6008,7 +6435,7 @@
         <v>89</v>
       </c>
       <c r="N23">
-        <v>9989451140.99</v>
+        <v>9989451140.9899998</v>
       </c>
       <c r="O23">
         <v>0.8</v>
@@ -6023,13 +6450,13 @@
         <v>1</v>
       </c>
       <c r="S23">
-        <v>5600412.938703342</v>
+        <v>5600412.9387033423</v>
       </c>
       <c r="T23">
         <v>5600413</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4</v>
       </c>
@@ -6046,7 +6473,7 @@
         <v>2378947836</v>
       </c>
       <c r="F24">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -6085,13 +6512,13 @@
         <v>1</v>
       </c>
       <c r="S24">
-        <v>2432299.98318049</v>
+        <v>2432299.9831804899</v>
       </c>
       <c r="T24">
         <v>2432300</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>28</v>
       </c>
@@ -6108,7 +6535,7 @@
         <v>180869312</v>
       </c>
       <c r="F25">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -6135,10 +6562,10 @@
         <v>4120353185.48</v>
       </c>
       <c r="O25">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="P25">
-        <v>37.328475</v>
+        <v>37.328474999999997</v>
       </c>
       <c r="Q25" t="s">
         <v>90</v>
@@ -6147,13 +6574,13 @@
         <v>1</v>
       </c>
       <c r="S25">
-        <v>3456704.6767307</v>
+        <v>3456704.6767306998</v>
       </c>
       <c r="T25">
         <v>3456705</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>22</v>
       </c>
@@ -6194,7 +6621,7 @@
         <v>89</v>
       </c>
       <c r="N26">
-        <v>8963662594.59</v>
+        <v>8963662594.5900002</v>
       </c>
       <c r="O26">
         <v>1</v>
@@ -6209,13 +6636,13 @@
         <v>1</v>
       </c>
       <c r="S26">
-        <v>3201586.157707109</v>
+        <v>3201586.1577071091</v>
       </c>
       <c r="T26">
         <v>3201586</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -6235,7 +6662,7 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.74761144574005</v>
+        <v>0.74761144574005001</v>
       </c>
       <c r="H27" t="s">
         <v>91</v>
@@ -6247,7 +6674,7 @@
         <v>31.01</v>
       </c>
       <c r="K27">
-        <v>31.775</v>
+        <v>31.774999999999999</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -6256,7 +6683,7 @@
         <v>89</v>
       </c>
       <c r="N27">
-        <v>44391990363.08</v>
+        <v>44391990363.080002</v>
       </c>
       <c r="O27">
         <v>1</v>
@@ -6271,13 +6698,13 @@
         <v>1</v>
       </c>
       <c r="S27">
-        <v>4161029.155360367</v>
+        <v>4161029.1553603671</v>
       </c>
       <c r="T27">
         <v>4161029</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>15</v>
       </c>
@@ -6321,7 +6748,7 @@
         <v>11882607461.26</v>
       </c>
       <c r="O28">
-        <v>0.6000000000000001</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="P28">
         <v>21.97</v>
@@ -6333,13 +6760,13 @@
         <v>1</v>
       </c>
       <c r="S28">
-        <v>5873168.598439918</v>
+        <v>5873168.5984399179</v>
       </c>
       <c r="T28">
         <v>5873169</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>95</v>
       </c>
@@ -6389,7 +6816,7 @@
         <v>2325347</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>36</v>
       </c>
@@ -6430,7 +6857,7 @@
         <v>88</v>
       </c>
       <c r="N30">
-        <v>2327467389.61</v>
+        <v>2327467389.6100001</v>
       </c>
       <c r="O30">
         <v>0.8</v>
@@ -6445,13 +6872,13 @@
         <v>1</v>
       </c>
       <c r="S30">
-        <v>6221480.911655014</v>
+        <v>6221480.9116550144</v>
       </c>
       <c r="T30">
         <v>6221481</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>7</v>
       </c>
@@ -6483,7 +6910,7 @@
         <v>88.64</v>
       </c>
       <c r="K31">
-        <v>92.76000000000001</v>
+        <v>92.76</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -6492,7 +6919,7 @@
         <v>89</v>
       </c>
       <c r="N31">
-        <v>22888854350.05</v>
+        <v>22888854350.049999</v>
       </c>
       <c r="O31">
         <v>1</v>
@@ -6507,13 +6934,13 @@
         <v>1</v>
       </c>
       <c r="S31">
-        <v>1455703.002117836</v>
+        <v>1455703.0021178359</v>
       </c>
       <c r="T31">
         <v>1455703</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>6</v>
       </c>
@@ -6530,10 +6957,10 @@
         <v>1797198523</v>
       </c>
       <c r="F32">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G32">
-        <v>0.24478248632254</v>
+        <v>0.24478248632253999</v>
       </c>
       <c r="H32" t="s">
         <v>91</v>
@@ -6554,10 +6981,10 @@
         <v>88</v>
       </c>
       <c r="N32">
-        <v>25421540355.33</v>
+        <v>25421540355.330002</v>
       </c>
       <c r="O32">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="P32">
         <v>54.12</v>
@@ -6575,7 +7002,7 @@
         <v>2384211</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>42</v>
       </c>
@@ -6622,7 +7049,7 @@
         <v>0.65</v>
       </c>
       <c r="P33">
-        <v>268.0596</v>
+        <v>268.05959999999999</v>
       </c>
       <c r="Q33" t="s">
         <v>90</v>
@@ -6631,13 +7058,13 @@
         <v>0</v>
       </c>
       <c r="S33">
-        <v>481361.2872201742</v>
+        <v>481361.28722017421</v>
       </c>
       <c r="T33">
         <v>481361</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>44</v>
       </c>
@@ -6684,7 +7111,7 @@
         <v>1</v>
       </c>
       <c r="P34">
-        <v>74.42180999999999</v>
+        <v>74.421809999999994</v>
       </c>
       <c r="Q34" t="s">
         <v>90</v>
@@ -6693,13 +7120,13 @@
         <v>0</v>
       </c>
       <c r="S34">
-        <v>1733813.167238542</v>
+        <v>1733813.1672385421</v>
       </c>
       <c r="T34">
         <v>1733813</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>26</v>
       </c>
@@ -6740,7 +7167,7 @@
         <v>88</v>
       </c>
       <c r="N35">
-        <v>4877719630.38</v>
+        <v>4877719630.3800001</v>
       </c>
       <c r="O35">
         <v>0.8</v>
@@ -6761,7 +7188,7 @@
         <v>2247971</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>14</v>
       </c>
@@ -6817,13 +7244,13 @@
         <v>1</v>
       </c>
       <c r="S36">
-        <v>170498.8294235267</v>
+        <v>170498.82942352671</v>
       </c>
       <c r="T36">
         <v>170499</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>45</v>
       </c>
@@ -6840,7 +7267,7 @@
         <v>243921719</v>
       </c>
       <c r="F37">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -6852,10 +7279,10 @@
         <v>122</v>
       </c>
       <c r="J37">
-        <v>9.234999999999999</v>
+        <v>9.2349999999999994</v>
       </c>
       <c r="K37">
-        <v>9.380000000000001</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -6864,13 +7291,13 @@
         <v>88</v>
       </c>
       <c r="N37">
-        <v>1233761301.07</v>
+        <v>1233761301.0699999</v>
       </c>
       <c r="O37">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="P37">
-        <v>9.234999999999999</v>
+        <v>9.2349999999999994</v>
       </c>
       <c r="Q37" t="s">
         <v>90</v>
@@ -6879,13 +7306,13 @@
         <v>0</v>
       </c>
       <c r="S37">
-        <v>13972226.75773958</v>
+        <v>13972226.757739579</v>
       </c>
       <c r="T37">
         <v>13972227</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>43</v>
       </c>
@@ -6926,7 +7353,7 @@
         <v>88</v>
       </c>
       <c r="N38">
-        <v>1425371963.6</v>
+        <v>1425371963.5999999</v>
       </c>
       <c r="O38">
         <v>1</v>
@@ -6941,13 +7368,13 @@
         <v>0</v>
       </c>
       <c r="S38">
-        <v>1731993.47795604</v>
+        <v>1731993.4779560401</v>
       </c>
       <c r="T38">
         <v>1731993</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>35</v>
       </c>
@@ -6976,7 +7403,7 @@
         <v>62</v>
       </c>
       <c r="J39">
-        <v>144.7</v>
+        <v>144.69999999999999</v>
       </c>
       <c r="K39">
         <v>147</v>
@@ -6988,13 +7415,13 @@
         <v>88</v>
       </c>
       <c r="N39">
-        <v>2402456712.9</v>
+        <v>2402456712.9000001</v>
       </c>
       <c r="O39">
         <v>0.4</v>
       </c>
       <c r="P39">
-        <v>144.7</v>
+        <v>144.69999999999999</v>
       </c>
       <c r="Q39" t="s">
         <v>90</v>
@@ -7003,13 +7430,13 @@
         <v>1</v>
       </c>
       <c r="S39">
-        <v>891731.2654300276</v>
+        <v>891731.26543002762</v>
       </c>
       <c r="T39">
         <v>891731</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>31</v>
       </c>
@@ -7050,7 +7477,7 @@
         <v>88</v>
       </c>
       <c r="N40">
-        <v>3109890216.43</v>
+        <v>3109890216.4299998</v>
       </c>
       <c r="O40">
         <v>0.45</v>
@@ -7071,7 +7498,7 @@
         <v>1282639</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>37</v>
       </c>
@@ -7088,7 +7515,7 @@
         <v>138400000</v>
       </c>
       <c r="F41">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -7112,10 +7539,10 @@
         <v>88</v>
       </c>
       <c r="N41">
-        <v>1916925161.63</v>
+        <v>1916925161.6300001</v>
       </c>
       <c r="O41">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="P41">
         <v>86.355165</v>
@@ -7133,7 +7560,7 @@
         <v>1494219</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>19</v>
       </c>
@@ -7150,10 +7577,10 @@
         <v>417544151</v>
       </c>
       <c r="F42">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G42">
-        <v>0.54404941800678</v>
+        <v>0.54404941800677997</v>
       </c>
       <c r="H42" t="s">
         <v>91</v>
@@ -7177,7 +7604,7 @@
         <v>10071343860.98</v>
       </c>
       <c r="O42">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="P42">
         <v>109.15</v>
@@ -7195,7 +7622,7 @@
         <v>1182167</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -7251,13 +7678,13 @@
         <v>0</v>
       </c>
       <c r="S43">
-        <v>16757.59923476948</v>
+        <v>16757.599234769481</v>
       </c>
       <c r="T43">
         <v>16758</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>46</v>
       </c>
@@ -7298,7 +7725,7 @@
         <v>88</v>
       </c>
       <c r="N44">
-        <v>948008325.83</v>
+        <v>948008325.83000004</v>
       </c>
       <c r="O44">
         <v>0.5</v>
@@ -7313,13 +7740,13 @@
         <v>0</v>
       </c>
       <c r="S44">
-        <v>2215167.624166953</v>
+        <v>2215167.6241669529</v>
       </c>
       <c r="T44">
         <v>2215168</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>47</v>
       </c>
@@ -7360,7 +7787,7 @@
         <v>88</v>
       </c>
       <c r="N45">
-        <v>534962636.27</v>
+        <v>534962636.26999998</v>
       </c>
       <c r="O45">
         <v>0.9</v>
@@ -7375,13 +7802,13 @@
         <v>0</v>
       </c>
       <c r="S45">
-        <v>1870050.929097464</v>
+        <v>1870050.9290974641</v>
       </c>
       <c r="T45">
         <v>1870051</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>40</v>
       </c>
@@ -7422,7 +7849,7 @@
         <v>88</v>
       </c>
       <c r="N46">
-        <v>1635145816.6</v>
+        <v>1635145816.5999999</v>
       </c>
       <c r="O46">
         <v>0.4</v>
@@ -7437,13 +7864,13 @@
         <v>1</v>
       </c>
       <c r="S46">
-        <v>543986.1471657883</v>
+        <v>543986.14716578834</v>
       </c>
       <c r="T46">
         <v>543986</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>38</v>
       </c>
@@ -7484,7 +7911,7 @@
         <v>88</v>
       </c>
       <c r="N47">
-        <v>1859542417.37</v>
+        <v>1859542417.3699999</v>
       </c>
       <c r="O47">
         <v>0.65</v>
@@ -7499,13 +7926,13 @@
         <v>1</v>
       </c>
       <c r="S47">
-        <v>4793221.177850111</v>
+        <v>4793221.1778501114</v>
       </c>
       <c r="T47">
         <v>4793221</v>
       </c>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>33</v>
       </c>
@@ -7537,7 +7964,7 @@
         <v>70.12</v>
       </c>
       <c r="K48">
-        <v>68.54000000000001</v>
+        <v>68.540000000000006</v>
       </c>
       <c r="L48">
         <v>1</v>
@@ -7546,10 +7973,10 @@
         <v>88</v>
       </c>
       <c r="N48">
-        <v>2565504599.65</v>
+        <v>2565504599.6500001</v>
       </c>
       <c r="O48">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="P48">
         <v>70.12</v>
@@ -7567,7 +7994,7 @@
         <v>1840181</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>16</v>
       </c>
@@ -7587,7 +8014,7 @@
         <v>0.65</v>
       </c>
       <c r="G49">
-        <v>0.44682397435343</v>
+        <v>0.44682397435343002</v>
       </c>
       <c r="H49" t="s">
         <v>91</v>
@@ -7623,13 +8050,13 @@
         <v>1</v>
       </c>
       <c r="S49">
-        <v>536076.0868621728</v>
+        <v>536076.08686217282</v>
       </c>
       <c r="T49">
         <v>536076</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>39</v>
       </c>
@@ -7670,7 +8097,7 @@
         <v>88</v>
       </c>
       <c r="N50">
-        <v>1804403506.06</v>
+        <v>1804403506.0599999</v>
       </c>
       <c r="O50">
         <v>0.75</v>
@@ -7685,7 +8112,7 @@
         <v>1</v>
       </c>
       <c r="S50">
-        <v>8140915.716575709</v>
+        <v>8140915.7165757092</v>
       </c>
       <c r="T50">
         <v>8140916</v>
@@ -7693,28 +8120,34 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5161340564.309</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>